--- a/data/Laporan/06-18-2023/Laporan.xlsx
+++ b/data/Laporan/06-18-2023/Laporan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Laporan\06-18-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6C6412-8D03-4A9F-AD55-3E9478799C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5707484-D5EC-4C57-9670-1B409685BB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4668" yWindow="3360" windowWidth="17280" windowHeight="8880" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Nama Produk</t>
   </si>
@@ -466,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608A1F2F-CF5B-4B87-BA46-BD17BC1DC7C1}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -673,8 +673,8 @@
       <c r="E7">
         <v>2100</v>
       </c>
-      <c r="F7">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>11</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -702,8 +702,8 @@
       <c r="E8">
         <v>1999</v>
       </c>
-      <c r="F8">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>11</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -731,8 +731,8 @@
       <c r="E9">
         <v>1999</v>
       </c>
-      <c r="F9">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>11</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -760,8 +760,8 @@
       <c r="E10">
         <v>1999</v>
       </c>
-      <c r="F10">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>11</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -771,11 +771,6 @@
       </c>
       <c r="I10">
         <v>1999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
